--- a/DataImporting/Files/Students1.xlsx
+++ b/DataImporting/Files/Students1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evert\source\repos\H5-Project\DataImporting\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBBA878-B9EC-4E84-A786-8F61529DE8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63A67B7-F90D-4526-A78A-7D5E04FF7ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18D7E2DE-F5B1-46C1-82A9-451718552012}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>S1234567, Jantje, Rozendaal, BHK01, ICTOOSDDh</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>studentnr, voornaam, achternaam, coach, klas</t>
+  </si>
+  <si>
+    <t>S0000003, Jantje, Rozendaal, BHK01, ICTOOSDDh</t>
+  </si>
+  <si>
+    <t>S0000004, Jantje, Rozendaal, BHK01, ICTOOSDDh</t>
+  </si>
+  <si>
+    <t>S0000005, Jantje, Rozendaal, BHK01, ICTOOSDDh</t>
   </si>
 </sst>
 </file>
@@ -409,7 +418,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,17 +453,17 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/DataImporting/Files/Students1.xlsx
+++ b/DataImporting/Files/Students1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evert\source\repos\H5-Project\DataImporting\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63A67B7-F90D-4526-A78A-7D5E04FF7ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCEF5F6-FAAA-4731-A802-E540CB4D7EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18D7E2DE-F5B1-46C1-82A9-451718552012}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{18D7E2DE-F5B1-46C1-82A9-451718552012}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>S1234567, Jantje, Rozendaal, BHK01, ICTOOSDDh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S0000001, Daan, Baan, BHK01, ICTOOSDDh</t>
   </si>
@@ -49,13 +47,19 @@
     <t>studentnr, voornaam, achternaam, coach, klas</t>
   </si>
   <si>
-    <t>S0000003, Jantje, Rozendaal, BHK01, ICTOOSDDh</t>
-  </si>
-  <si>
-    <t>S0000004, Jantje, Rozendaal, BHK01, ICTOOSDDh</t>
-  </si>
-  <si>
-    <t>S0000005, Jantje, Rozendaal, BHK01, ICTOOSDDh</t>
+    <t>S0000003, Tom, Vliet, BHK02, ICTOOSDDh</t>
+  </si>
+  <si>
+    <t>S0000000, Jantje, Rozendaal, BHK01, ICTOOSDDh</t>
+  </si>
+  <si>
+    <t>S0000004, Ruben, Baan, BHK03, ICTOOSDDh</t>
+  </si>
+  <si>
+    <t>S0000005, Loek, Hark, BHK04, ICTOOSDDh</t>
+  </si>
+  <si>
+    <t>s0000006, Jantje, Klaassen, BHK05, ICTOOSDDh</t>
   </si>
 </sst>
 </file>
@@ -415,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49F8EA7-4ACE-4936-9C4C-6E3D170C5F78}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +432,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -437,23 +441,23 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -464,6 +468,11 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
